--- a/meta_data.xlsx
+++ b/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-lin study\R-九象限图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\LX9quad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17202B-C195-4F0F-9479-BE76B04A1FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24A7274-BBEA-4EE6-921B-845257E5C081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3517" yWindow="1245" windowWidth="15451" windowHeight="9518" xr2:uid="{378DD8FD-EEE8-43E3-A92D-1249D286AFB5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{378DD8FD-EEE8-43E3-A92D-1249D286AFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -257,15 +256,6 @@
     <t>Model3</t>
   </si>
   <si>
-    <t>Didymin1</t>
-  </si>
-  <si>
-    <t>Didymin2</t>
-  </si>
-  <si>
-    <t>Didymin3</t>
-  </si>
-  <si>
     <t>Didymin</t>
   </si>
   <si>
@@ -275,6 +265,16 @@
   <si>
     <t>Accepted Compound ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2</t>
+  </si>
+  <si>
+    <t>MA3</t>
   </si>
 </sst>
 </file>
@@ -658,20 +658,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079EF2D-C67B-4A10-9036-075E70A2819A}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>67</v>
@@ -689,16 +691,16 @@
         <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -706,7 +708,7 @@
         <v>4.0495365710889004</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1">
         <v>5.0041305682788204</v>
@@ -727,7 +729,7 @@
         <v>7.0135031513666499</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -735,7 +737,7 @@
         <v>3.5147588759250699</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1">
         <v>10.7495220629621</v>
@@ -756,7 +758,7 @@
         <v>10.633370310420799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -785,7 +787,7 @@
         <v>1504.1942161510999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -793,7 +795,7 @@
         <v>5.6355030083657098</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1">
         <v>965.62237357120102</v>
@@ -814,7 +816,7 @@
         <v>50.427208142656298</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -822,7 +824,7 @@
         <v>66.825278784862704</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1">
         <v>134.57918545783801</v>
@@ -843,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -872,7 +874,7 @@
         <v>348.10912860486002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -901,15 +903,15 @@
         <v>1301.8993845448099</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1">
         <v>15.7690125920757</v>
@@ -930,12 +932,12 @@
         <v>7.6373910373514597</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>70</v>
@@ -959,7 +961,7 @@
         <v>44.143177898190899</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -967,7 +969,7 @@
         <v>1.53634429496126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1">
         <v>4.0341959653784096</v>
@@ -988,7 +990,7 @@
         <v>10.244937136284101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>185.35235587664101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>5.4926257728018397</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
         <v>17.789177919797002</v>
@@ -1046,7 +1048,7 @@
         <v>0.99052642300654203</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>3.4179090097513098</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1">
         <v>28.133411078904398</v>
@@ -1075,7 +1077,7 @@
         <v>16.259074746035601</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>609.33501470454996</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>1.24689977762412</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1">
         <v>19.902136937711401</v>
@@ -1133,7 +1135,7 @@
         <v>60.855356498162401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>10.4534063865812</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>120.511712842935</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>263.273471206164</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>403.17617687347399</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>384.726815797504</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>7.0160004034298398</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1">
         <v>16.2627841206188</v>
@@ -1307,7 +1309,7 @@
         <v>7.1008148705265404</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>377.24077037429299</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>3.8032523197732702</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1">
         <v>11.393448315928</v>
@@ -1365,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>2.4455831520500402</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1">
         <v>802.75508194243901</v>
@@ -1394,7 +1396,7 @@
         <v>607.963738174132</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>394.69804150750099</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>101.602480465344</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>41.331251550206098</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>646.74137323969705</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>2.2320375642814798</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1">
         <v>6080.6295750031304</v>
@@ -1539,7 +1541,7 @@
         <v>568.27165024842395</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>5284.4571392579901</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>69.901053184779897</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>3566.1257844531501</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>5.0236129178097499</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1">
         <v>33.904655407971198</v>
@@ -1655,7 +1657,7 @@
         <v>4.7008303322256504</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1">
         <v>111.71755894207899</v>
@@ -1684,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="1">
         <v>711.82472887287895</v>
@@ -1713,12 +1715,12 @@
         <v>40.202070055926903</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>70</v>
@@ -1742,7 +1744,7 @@
         <v>192.383440068754</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>42.482403025400501</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>5.9480759387609803</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1">
         <v>13.4742872051036</v>
@@ -1800,7 +1802,7 @@
         <v>5.44447753256122</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>2.9790014698857399</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D40" s="1">
         <v>345.973064597958</v>
@@ -1829,7 +1831,7 @@
         <v>383.05026532299502</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>200.61674994484801</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>2.27756219347263</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1">
         <v>18.833726394225401</v>
@@ -1887,7 +1889,7 @@
         <v>19.569460206741599</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>7.3110841008358101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D43" s="1">
         <v>68.753546424170594</v>
@@ -1916,7 +1918,7 @@
         <v>17.750674307420301</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>88.098330812294506</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>22.299585902420699</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>1.7171422560895899</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1">
         <v>7156.3269540524198</v>
@@ -2003,7 +2005,7 @@
         <v>5286.4055725354401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>70.166807271218204</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>31.5988260512697</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1">
         <v>266.55145569798202</v>
@@ -2061,7 +2063,7 @@
         <v>1.7835570395189199E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>7.5351896508879603</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1">
         <v>86.388177525326</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>672.88727759437404</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>177.212076998562</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>148.65462987630099</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>4.1730650072318696</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D54" s="1">
         <v>11.6826738226684</v>
@@ -2235,7 +2237,7 @@
         <v>1.90349273484791</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>67.350854102986006</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>68.000155793146803</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>80.810181816676305</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>1.7578277456393701</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1">
         <v>61.440129555753202</v>
@@ -2351,7 +2353,7 @@
         <v>15.756083258176099</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>4925.9977650445098</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>5.10103342471694</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1">
         <v>740.65863684567898</v>
@@ -2409,7 +2411,7 @@
         <v>117.19497236359101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>91.277575094546506</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>168.41888892772101</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
@@ -2496,12 +2498,12 @@
         <v>172.52042689594001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>80.965877698054001</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>70</v>
@@ -2516,21 +2518,21 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>13.4193447776401</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>30.483588911108001</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>29.780431241110598</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="1">
-        <v>33.605356544097504</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>70</v>
@@ -2545,16 +2547,16 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>228.745409400391</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>309.72375743964102</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>602.24582922009995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>50</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>2.7757775714102899</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1">
         <v>49.181044392077503</v>
@@ -2583,7 +2585,7 @@
         <v>72.342623144649593</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>20.973273841559202</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D67" s="1">
         <v>146.36711558708399</v>
@@ -2612,18 +2614,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="1">
-        <v>3.2493779916286498</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>24.790528288814201</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2641,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>2.5130085723356301</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1">
         <v>898.69617783819206</v>
@@ -2670,7 +2672,7 @@
         <v>263.21754329300001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>140.20475719999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>27.937846319999998</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>170.94576850000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>37</v>
       </c>
